--- a/Data/EC/NIT-8001946003.xlsx
+++ b/Data/EC/NIT-8001946003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10FB309-C69A-44ED-8D03-54EC43ADD744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90B2D3D-2E4B-4EB6-A997-53806ADD7736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9B1435A0-1050-41C6-9B49-3CAFCFE70CFB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA45EA77-5163-4109-9323-BDC476CF32D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,25 +65,25 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1062675657</t>
+  </si>
+  <si>
+    <t>JOSE GABRIEL AVILA PADILLA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>1067918429</t>
   </si>
   <si>
     <t>CARLOS ANDRES ESPITIA ROMERO</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1062675657</t>
-  </si>
-  <si>
-    <t>JOSE GABRIEL AVILA PADILLA</t>
-  </si>
-  <si>
-    <t>2308</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -497,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C706FC9-D941-3215-2BF6-CEEF27D20A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425AD9FF-7F5D-5A0D-8A7F-A893B7AA46C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD31E23-71B3-4129-A09D-7CF863D5BAE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1467F0A-241F-4423-918E-FE083D827F30}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1026,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>105611</v>
+        <v>82388</v>
       </c>
       <c r="G16" s="18">
-        <v>4227100</v>
+        <v>2308400</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1040,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>150872</v>
@@ -1063,19 +1063,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>14</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="24">
-        <v>82388</v>
+        <v>105611</v>
       </c>
       <c r="G18" s="24">
-        <v>2308400</v>
+        <v>4227100</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
